--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_29.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_29.xlsx
@@ -512,95 +512,95 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9921412595410956</v>
+        <v>0.9218127819217337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.721419065463585</v>
+        <v>0.7154858815210543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.712206582451589</v>
+        <v>0.7143141220321225</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9826703456119625</v>
+        <v>0.9181646071764522</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03298145254434545</v>
+        <v>0.3281350282666327</v>
       </c>
       <c r="G2" t="n">
-        <v>1.862871991992261</v>
+        <v>1.902547220335765</v>
       </c>
       <c r="H2" t="n">
-        <v>1.029420367349529</v>
+        <v>1.021881820472127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01388193454891147</v>
+        <v>0.5830292334103678</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3433363575430627</v>
+        <v>1.95199962138275</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1816079638791908</v>
+        <v>0.5728307151913492</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004600238317408</v>
+        <v>0.7319295380173725</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1893393908818393</v>
+        <v>0.5972173046600964</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8236198392648</v>
+        <v>36.22866016753373</v>
       </c>
       <c r="O2" t="n">
-        <v>216.0505484556979</v>
+        <v>56.94954919029313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_3</t>
+          <t>model_1_29_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.992274200587374</v>
+        <v>0.9221870771757341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7214184871746496</v>
+        <v>0.7152668155742228</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7123691591840373</v>
+        <v>0.7125993740846925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9823993150711824</v>
+        <v>0.9256808983057507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03242352741220058</v>
+        <v>0.3265641911557819</v>
       </c>
       <c r="G3" t="n">
-        <v>1.862875859013036</v>
+        <v>1.904012115330933</v>
       </c>
       <c r="H3" t="n">
-        <v>1.028838839804302</v>
+        <v>1.028015374453285</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01409904379665641</v>
+        <v>0.5294800622754174</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3437256334833719</v>
+        <v>1.904482934458152</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1800653420628206</v>
+        <v>0.5714579522202679</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004522419168366</v>
+        <v>0.7332128360310883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1877310964610788</v>
+        <v>0.5957861003273249</v>
       </c>
       <c r="N3" t="n">
-        <v>136.8577419300181</v>
+        <v>36.23825749148693</v>
       </c>
       <c r="O3" t="n">
-        <v>216.0846705464512</v>
+        <v>56.95914651424633</v>
       </c>
     </row>
     <row r="4">
@@ -610,144 +610,144 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9920020847564003</v>
+        <v>0.9222058091638577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7214175989002394</v>
+        <v>0.7151248831657815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7120352124525807</v>
+        <v>0.7126610391156354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9828539995187592</v>
+        <v>0.9251615767074828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03356553934308894</v>
+        <v>0.3264855770088217</v>
       </c>
       <c r="G4" t="n">
-        <v>1.862881798908107</v>
+        <v>1.904961217999719</v>
       </c>
       <c r="H4" t="n">
-        <v>1.030033347899378</v>
+        <v>1.027794802213146</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01373481842895226</v>
+        <v>0.5331799244363347</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3429448222130636</v>
+        <v>1.907208478661797</v>
       </c>
       <c r="K4" t="n">
-        <v>0.183209004536046</v>
+        <v>0.571389164238194</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004681706484058</v>
+        <v>0.7332770599903695</v>
       </c>
       <c r="M4" t="n">
-        <v>0.191008591154068</v>
+        <v>0.5957143838984432</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7885107062095</v>
+        <v>36.23873901158645</v>
       </c>
       <c r="O4" t="n">
-        <v>216.0154393226425</v>
+        <v>56.95962803434585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_4</t>
+          <t>model_1_29_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9924010345214266</v>
+        <v>0.9216539452938776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7214159645956641</v>
+        <v>0.7141497962374892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7125233296129271</v>
+        <v>0.7145805136743442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9820432917346783</v>
+        <v>0.917059177184564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03189123252361859</v>
+        <v>0.3288016316150105</v>
       </c>
       <c r="G5" t="n">
-        <v>1.862892727510326</v>
+        <v>1.911481628779072</v>
       </c>
       <c r="H5" t="n">
-        <v>1.028287381119478</v>
+        <v>1.020928953014175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01438423659649934</v>
+        <v>0.5909047745243343</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3441176117930355</v>
+        <v>1.959033550574495</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1785811650864071</v>
+        <v>0.5734122701992088</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004448174914287</v>
+        <v>0.7313849552932945</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1861837349981096</v>
+        <v>0.5978236176686252</v>
       </c>
       <c r="N5" t="n">
-        <v>136.8908482989745</v>
+        <v>36.22460130695934</v>
       </c>
       <c r="O5" t="n">
-        <v>216.1177769154075</v>
+        <v>56.94549032971874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_0</t>
+          <t>model_1_29_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9918565462810557</v>
+        <v>0.9212261628651857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7214139559896371</v>
+        <v>0.7128764668823275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7118551060408326</v>
+        <v>0.7151572596776173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9829484121617593</v>
+        <v>0.9144692205072433</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03417633319015059</v>
+        <v>0.3305969429559292</v>
       </c>
       <c r="G6" t="n">
-        <v>1.862906159068078</v>
+        <v>1.91999638804018</v>
       </c>
       <c r="H6" t="n">
-        <v>1.030677578091031</v>
+        <v>1.018865966002121</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0136591891000937</v>
+        <v>0.6093566986129764</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3425585671810651</v>
+        <v>1.974492209961126</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1848684212897124</v>
+        <v>0.574975602052756</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004766899737919</v>
+        <v>0.7299182726806366</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1927386527144041</v>
+        <v>0.599453503795721</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7524437728966</v>
+        <v>36.21371068119046</v>
       </c>
       <c r="O6" t="n">
-        <v>215.9793723893296</v>
+        <v>56.93459970394986</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9925218997960108</v>
+        <v>0.9123200108034003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7214114741426574</v>
+        <v>0.6997306162948541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7126690526942311</v>
+        <v>0.7184896349044967</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9816042020332286</v>
+        <v>0.8759334288686343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03138398682199456</v>
+        <v>0.3679741579326211</v>
       </c>
       <c r="G7" t="n">
-        <v>1.862922755190259</v>
+        <v>2.007902751449691</v>
       </c>
       <c r="H7" t="n">
-        <v>1.027766138107163</v>
+        <v>1.006946253037791</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0147359697794088</v>
+        <v>0.8839016391665575</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3445063418013119</v>
+        <v>2.146847795062007</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1771552619088537</v>
+        <v>0.6066087354569015</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004377424509652</v>
+        <v>0.6993828941830869</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1846971281702612</v>
+        <v>0.6324333251784944</v>
       </c>
       <c r="N7" t="n">
-        <v>136.9229149799413</v>
+        <v>35.99948513257628</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1498435963743</v>
+        <v>56.72037415533568</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9926369386145415</v>
+        <v>0.9097445455127999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7214050609101019</v>
+        <v>0.695687720701532</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7128066533078283</v>
+        <v>0.7183967015052934</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9810842927819075</v>
+        <v>0.8657473222390979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03090119351001645</v>
+        <v>0.378782834807209</v>
       </c>
       <c r="G8" t="n">
-        <v>1.862965640505887</v>
+        <v>2.034937612898059</v>
       </c>
       <c r="H8" t="n">
-        <v>1.027273948690868</v>
+        <v>1.007278670418153</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0151524435322377</v>
+        <v>0.9564716817208841</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3449008121405703</v>
+        <v>2.188041452186606</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1757873531003196</v>
+        <v>0.6154533571337547</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004310084713439</v>
+        <v>0.690552727472457</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1832709846517863</v>
+        <v>0.6416544807110222</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9539209418095</v>
+        <v>35.94158446671171</v>
       </c>
       <c r="O8" t="n">
-        <v>216.1808495582425</v>
+        <v>56.66247348947112</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.992746291042425</v>
+        <v>0.9011881336371204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.721396779653382</v>
+        <v>0.685950800785997</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7129362311292415</v>
+        <v>0.7169058500148111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9804857585709571</v>
+        <v>0.832225474244801</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03044226476313826</v>
+        <v>0.414692265040122</v>
       </c>
       <c r="G9" t="n">
-        <v>1.863021017307705</v>
+        <v>2.100048441207634</v>
       </c>
       <c r="H9" t="n">
-        <v>1.026810456337027</v>
+        <v>1.012611359755073</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01563189987658538</v>
+        <v>1.195295211055616</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3452919478970629</v>
+        <v>2.322916562647166</v>
       </c>
       <c r="K9" t="n">
-        <v>0.174477118164928</v>
+        <v>0.6439660433905828</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004246073536142</v>
+        <v>0.6612164581844127</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1819049703026348</v>
+        <v>0.6713810110512007</v>
       </c>
       <c r="N9" t="n">
-        <v>136.9838466957295</v>
+        <v>35.76043712768924</v>
       </c>
       <c r="O9" t="n">
-        <v>216.2107753121625</v>
+        <v>56.48132615044864</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9928500826778409</v>
+        <v>0.9005353266730513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7213868404145787</v>
+        <v>0.6847523459536409</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7130580773113744</v>
+        <v>0.7167649058436238</v>
       </c>
       <c r="E10" t="n">
-        <v>0.97981063243708</v>
+        <v>0.8296516046287419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03000667347266734</v>
+        <v>0.4174319562181996</v>
       </c>
       <c r="G10" t="n">
-        <v>1.863087481043349</v>
+        <v>2.108062514189977</v>
       </c>
       <c r="H10" t="n">
-        <v>1.026374619608585</v>
+        <v>1.013115508882996</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01617271024665317</v>
+        <v>1.213632524256822</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3456827776186924</v>
+        <v>2.333208105169256</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1732243443418602</v>
+        <v>0.6460897431612729</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004185317456874</v>
+        <v>0.6589782628790328</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1805988633043196</v>
+        <v>0.6735951211177937</v>
       </c>
       <c r="N10" t="n">
-        <v>137.0126709459384</v>
+        <v>35.7472674541837</v>
       </c>
       <c r="O10" t="n">
-        <v>216.2395995623714</v>
+        <v>56.46815647694311</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9929484642321452</v>
+        <v>0.8999045768309824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7213751298245457</v>
+        <v>0.6836864582547839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7131723899982992</v>
+        <v>0.7166305624301343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9790609129652463</v>
+        <v>0.8271589203344105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02959378713528348</v>
+        <v>0.4200790783737582</v>
       </c>
       <c r="G11" t="n">
-        <v>1.863165789812822</v>
+        <v>2.115190110140195</v>
       </c>
       <c r="H11" t="n">
-        <v>1.025965729755685</v>
+        <v>1.01359604748337</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01677327367423226</v>
+        <v>1.231391439600354</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3460734770320418</v>
+        <v>2.343152272811764</v>
       </c>
       <c r="K11" t="n">
-        <v>0.172028448621975</v>
+        <v>0.6481350772591762</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004127728254354</v>
+        <v>0.6568156919919395</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1793520558277935</v>
+        <v>0.67572752932267</v>
       </c>
       <c r="N11" t="n">
-        <v>137.0403816675225</v>
+        <v>35.73462460717049</v>
       </c>
       <c r="O11" t="n">
-        <v>216.2673102839555</v>
+        <v>56.4555136299299</v>
       </c>
     </row>
   </sheetData>
